--- a/Data/Regression/news_index_senti_lex_PMI_q.xlsx
+++ b/Data/Regression/news_index_senti_lex_PMI_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1137369439936839</v>
+        <v>0.03574345128620779</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>0.101745032062789</v>
+        <v>0.06243555122631465</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0973495190706167</v>
+        <v>0.08029663522779175</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1105659404783936</v>
+        <v>0.07234699836028849</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09460699889916263</v>
+        <v>0.06111069968746671</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09336315260383993</v>
+        <v>0.04216626602374479</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08886997407907445</v>
+        <v>0.06672383201589777</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1243388837045212</v>
+        <v>0.06545897217547292</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1100613273076133</v>
+        <v>0.06519095426083764</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08776396447498321</v>
+        <v>0.04104235440550988</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>0.1209278454579182</v>
+        <v>0.06878222441354853</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1403914499344559</v>
+        <v>0.05996951077424797</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>0.1015944000586262</v>
+        <v>0.07907981752039832</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1220928044081525</v>
+        <v>0.06054589166729495</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1243022100113666</v>
+        <v>0.06849947337949845</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1431919171296084</v>
+        <v>0.09375571139988273</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1049934768975034</v>
+        <v>0.07442704224586272</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1088666073311355</v>
+        <v>0.08068263382656737</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1457960340620409</v>
+        <v>0.1034112554275473</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>0.130663100614488</v>
+        <v>0.06466411864278113</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1129615142088556</v>
+        <v>0.09030958777696305</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1249749453036656</v>
+        <v>0.06068800696375291</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1147957086541397</v>
+        <v>0.06889205853286751</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1331806477675279</v>
+        <v>0.04949694921736059</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1090747239051313</v>
+        <v>0.06886199047049822</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1262956084820772</v>
+        <v>0.06776636475896923</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1402600386902555</v>
+        <v>0.06939570667629857</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1394417314736623</v>
+        <v>0.07596569457997936</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1054665815796</v>
+        <v>0.06851209313771235</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1142957355647168</v>
+        <v>0.04452446359042315</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>0.09832061008247177</v>
+        <v>0.05075931853279024</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>0.08686421451599015</v>
+        <v>0.05960922875578273</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09322887067197917</v>
+        <v>0.03891671803350813</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0904119747920421</v>
+        <v>0.05289153935095235</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>0.125751149380626</v>
+        <v>0.08374174243874327</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>0.133877108463642</v>
+        <v>0.08422980922560046</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1136041025557825</v>
+        <v>0.0809441752103455</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>0.120481197696134</v>
+        <v>0.08282597629574426</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1088336054126172</v>
+        <v>0.08575410501725447</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1213201144909373</v>
+        <v>0.09427802681246865</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.120270831968377</v>
+        <v>0.03294783918172642</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1149013381550311</v>
+        <v>0.08356576256263369</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>0.09990823935243126</v>
+        <v>0.06729286264010895</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1325433305186106</v>
+        <v>0.07759023945518054</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1286043588002018</v>
+        <v>0.08365555752286996</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>0.118888581049611</v>
+        <v>0.08402729075546415</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1116479324815504</v>
+        <v>0.07633800813641502</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>0.1093747248480432</v>
+        <v>0.04954634719997026</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>0.09155070810682361</v>
+        <v>0.05427461672157891</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0649566209353761</v>
+        <v>0.02684329869503389</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1080462611735079</v>
+        <v>0.0420872965453449</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1354992738223321</v>
+        <v>0.06613036358234245</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1392315479420503</v>
+        <v>0.07129752673691456</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09733586944490079</v>
+        <v>0.04243822333237877</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.09235815826791959</v>
+        <v>0.04052058494792745</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1141645872347792</v>
+        <v>0.0585202578519318</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1180851246477613</v>
+        <v>0.07858034034818877</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1013477536040163</v>
+        <v>0.08520050990434251</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.112252964396529</v>
+        <v>0.07190973962565118</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1061311826263261</v>
+        <v>0.05916080106773661</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1068828390608543</v>
+        <v>0.05760977783771891</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>0.09381639684016281</v>
+        <v>0.05348462202460091</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1127016356161954</v>
+        <v>0.05407519381665079</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>0.09513235101739845</v>
+        <v>0.0508395859394728</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>0.1085004328025234</v>
+        <v>0.06053038382373559</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1124016258115992</v>
+        <v>0.06344489871922693</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>0.085202147445891</v>
+        <v>0.04719749355259403</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>0.101162662695452</v>
+        <v>0.07883496921559989</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08326325226237825</v>
+        <v>0.05735158972589238</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>0.09323582163387152</v>
+        <v>0.06641281160251827</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1017361252154889</v>
+        <v>0.06101281930822235</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>0.10927681211767</v>
+        <v>0.06521458478188899</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>0.1057515440686166</v>
+        <v>0.08844128631106117</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>0.09341376275522476</v>
+        <v>0.05636426461440724</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>0.10277838664022</v>
+        <v>0.0442109741064917</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>0.1024364064611999</v>
+        <v>0.03685173799497465</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.09880196291345353</v>
+        <v>0.03429803039242681</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.09815465367784501</v>
+        <v>0.02817589908198746</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09514031403053173</v>
+        <v>0.03493371570372235</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1137961149069971</v>
+        <v>0.04715796916651147</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>0.09382625106043818</v>
+        <v>0.07106415739791817</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1062524491770884</v>
+        <v>0.06103345102404226</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1243712791330758</v>
+        <v>0.06661170733845125</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>0.1154213632172864</v>
+        <v>0.05918715214151189</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>0.139823323537909</v>
+        <v>0.05776158732686179</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1285821033818975</v>
+        <v>0.05195236445878916</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>0.1175787128539327</v>
+        <v>0.04898046652861778</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1224546093218021</v>
+        <v>0.05992706337449017</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>0.1108487913425177</v>
+        <v>0.06430836161784736</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>0.1049519887892436</v>
+        <v>0.05082470523501012</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>0.1268087535254894</v>
+        <v>0.06730866128221606</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>0.1345469953557652</v>
+        <v>0.08651329866112803</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>0.1155736649175719</v>
+        <v>0.08791724840439039</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>0.09219632875256518</v>
+        <v>0.05724045460701351</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1142114401710174</v>
+        <v>0.07837866137234001</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1011829510820594</v>
+        <v>0.07095098815287457</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>0.08011082219687204</v>
+        <v>0.0450359201146542</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1127739634238339</v>
+        <v>0.07019612305156113</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1177383948985047</v>
+        <v>0.07589335577383131</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1056101082892074</v>
+        <v>0.05704058317622094</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1106987657608965</v>
+        <v>0.06935098057138143</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>0.08203305124331997</v>
+        <v>0.03864716224849252</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>0.107853805714405</v>
+        <v>0.0519982368548858</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>0.1231011824627867</v>
+        <v>0.0702555585950049</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>0.1258004953308949</v>
+        <v>0.09287425788934812</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>0.1033533461633102</v>
+        <v>0.05378084192745098</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>0.1184094186528237</v>
+        <v>0.05803702491888062</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>0.1185581295718675</v>
+        <v>0.068044516926362</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>0.127045434726195</v>
+        <v>0.08196360719216471</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1286697786527645</v>
+        <v>0.09231379874190368</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>0.1054277487964226</v>
+        <v>0.06656303060111084</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>0.09924079030002807</v>
+        <v>0.05405704108483051</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Regression/news_index_senti_lex_PMI_q.xlsx
+++ b/Data/Regression/news_index_senti_lex_PMI_q.xlsx
@@ -456,7 +456,7 @@
         <v>33239</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03574345128620779</v>
+        <v>0.118277169070516</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         <v>33329</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06243555122631465</v>
+        <v>0.1287095811940971</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         <v>33420</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08029663522779175</v>
+        <v>0.1548569299739465</v>
       </c>
     </row>
     <row r="5">
@@ -480,7 +480,7 @@
         <v>33512</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07234699836028849</v>
+        <v>0.1319070253576117</v>
       </c>
     </row>
     <row r="6">
@@ -488,7 +488,7 @@
         <v>33604</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06111069968746671</v>
+        <v>0.1275050172572637</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         <v>33695</v>
       </c>
       <c r="B7" t="n">
-        <v>0.04216626602374479</v>
+        <v>0.1097668659856818</v>
       </c>
     </row>
     <row r="8">
@@ -504,7 +504,7 @@
         <v>33786</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06672383201589777</v>
+        <v>0.1331408899808243</v>
       </c>
     </row>
     <row r="9">
@@ -512,7 +512,7 @@
         <v>33878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.06545897217547292</v>
+        <v>0.1475592227762231</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         <v>33970</v>
       </c>
       <c r="B10" t="n">
-        <v>0.06519095426083764</v>
+        <v>0.1323336035744391</v>
       </c>
     </row>
     <row r="11">
@@ -528,7 +528,7 @@
         <v>34060</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04104235440550988</v>
+        <v>0.1169251794798805</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>34151</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06878222441354853</v>
+        <v>0.1187602486266642</v>
       </c>
     </row>
     <row r="13">
@@ -544,7 +544,7 @@
         <v>34243</v>
       </c>
       <c r="B13" t="n">
-        <v>0.05996951077424797</v>
+        <v>0.1233938601418526</v>
       </c>
     </row>
     <row r="14">
@@ -552,7 +552,7 @@
         <v>34335</v>
       </c>
       <c r="B14" t="n">
-        <v>0.07907981752039832</v>
+        <v>0.1413691983249313</v>
       </c>
     </row>
     <row r="15">
@@ -560,7 +560,7 @@
         <v>34425</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06054589166729495</v>
+        <v>0.1337890991231992</v>
       </c>
     </row>
     <row r="16">
@@ -568,7 +568,7 @@
         <v>34516</v>
       </c>
       <c r="B16" t="n">
-        <v>0.06849947337949845</v>
+        <v>0.1415840718063918</v>
       </c>
     </row>
     <row r="17">
@@ -576,7 +576,7 @@
         <v>34608</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09375571139988273</v>
+        <v>0.1603659830676659</v>
       </c>
     </row>
     <row r="18">
@@ -584,7 +584,7 @@
         <v>34700</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07442704224586272</v>
+        <v>0.1388527521559323</v>
       </c>
     </row>
     <row r="19">
@@ -592,7 +592,7 @@
         <v>34790</v>
       </c>
       <c r="B19" t="n">
-        <v>0.08068263382656737</v>
+        <v>0.1509680678336629</v>
       </c>
     </row>
     <row r="20">
@@ -600,7 +600,7 @@
         <v>34881</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1034112554275473</v>
+        <v>0.1595592069617186</v>
       </c>
     </row>
     <row r="21">
@@ -608,7 +608,7 @@
         <v>34973</v>
       </c>
       <c r="B21" t="n">
-        <v>0.06466411864278113</v>
+        <v>0.1218262221496025</v>
       </c>
     </row>
     <row r="22">
@@ -616,7 +616,7 @@
         <v>35065</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09030958777696305</v>
+        <v>0.1531942033633833</v>
       </c>
     </row>
     <row r="23">
@@ -624,7 +624,7 @@
         <v>35156</v>
       </c>
       <c r="B23" t="n">
-        <v>0.06068800696375291</v>
+        <v>0.1240402557585774</v>
       </c>
     </row>
     <row r="24">
@@ -632,7 +632,7 @@
         <v>35247</v>
       </c>
       <c r="B24" t="n">
-        <v>0.06889205853286751</v>
+        <v>0.1285142846828103</v>
       </c>
     </row>
     <row r="25">
@@ -640,7 +640,7 @@
         <v>35339</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04949694921736059</v>
+        <v>0.1192580592453106</v>
       </c>
     </row>
     <row r="26">
@@ -648,7 +648,7 @@
         <v>35431</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06886199047049822</v>
+        <v>0.1416204148542832</v>
       </c>
     </row>
     <row r="27">
@@ -656,7 +656,7 @@
         <v>35521</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06776636475896923</v>
+        <v>0.1250817160086953</v>
       </c>
     </row>
     <row r="28">
@@ -664,7 +664,7 @@
         <v>35612</v>
       </c>
       <c r="B28" t="n">
-        <v>0.06939570667629857</v>
+        <v>0.1410337708212388</v>
       </c>
     </row>
     <row r="29">
@@ -672,7 +672,7 @@
         <v>35704</v>
       </c>
       <c r="B29" t="n">
-        <v>0.07596569457997936</v>
+        <v>0.1359108884111451</v>
       </c>
     </row>
     <row r="30">
@@ -680,7 +680,7 @@
         <v>35796</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06851209313771235</v>
+        <v>0.1290318525788604</v>
       </c>
     </row>
     <row r="31">
@@ -688,7 +688,7 @@
         <v>35886</v>
       </c>
       <c r="B31" t="n">
-        <v>0.04452446359042315</v>
+        <v>0.1231127880967317</v>
       </c>
     </row>
     <row r="32">
@@ -696,7 +696,7 @@
         <v>35977</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05075931853279024</v>
+        <v>0.1219876957476292</v>
       </c>
     </row>
     <row r="33">
@@ -704,7 +704,7 @@
         <v>36069</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05960922875578273</v>
+        <v>0.1183474766283261</v>
       </c>
     </row>
     <row r="34">
@@ -712,7 +712,7 @@
         <v>36161</v>
       </c>
       <c r="B34" t="n">
-        <v>0.03891671803350813</v>
+        <v>0.1077990011783822</v>
       </c>
     </row>
     <row r="35">
@@ -720,7 +720,7 @@
         <v>36251</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05289153935095235</v>
+        <v>0.1070457098536686</v>
       </c>
     </row>
     <row r="36">
@@ -728,7 +728,7 @@
         <v>36342</v>
       </c>
       <c r="B36" t="n">
-        <v>0.08374174243874327</v>
+        <v>0.1301737975103735</v>
       </c>
     </row>
     <row r="37">
@@ -736,7 +736,7 @@
         <v>36434</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08422980922560046</v>
+        <v>0.1441635548227609</v>
       </c>
     </row>
     <row r="38">
@@ -744,7 +744,7 @@
         <v>36526</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0809441752103455</v>
+        <v>0.1516037134083039</v>
       </c>
     </row>
     <row r="39">
@@ -752,7 +752,7 @@
         <v>36617</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08282597629574426</v>
+        <v>0.1374506738719726</v>
       </c>
     </row>
     <row r="40">
@@ -760,7 +760,7 @@
         <v>36708</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08575410501725447</v>
+        <v>0.1404260868417505</v>
       </c>
     </row>
     <row r="41">
@@ -768,7 +768,7 @@
         <v>36800</v>
       </c>
       <c r="B41" t="n">
-        <v>0.09427802681246865</v>
+        <v>0.1511958602216147</v>
       </c>
     </row>
     <row r="42">
@@ -776,7 +776,7 @@
         <v>36892</v>
       </c>
       <c r="B42" t="n">
-        <v>0.03294783918172642</v>
+        <v>0.1051307190288229</v>
       </c>
     </row>
     <row r="43">
@@ -784,7 +784,7 @@
         <v>36982</v>
       </c>
       <c r="B43" t="n">
-        <v>0.08356576256263369</v>
+        <v>0.140082682663887</v>
       </c>
     </row>
     <row r="44">
@@ -792,7 +792,7 @@
         <v>37073</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06729286264010895</v>
+        <v>0.1357177152968492</v>
       </c>
     </row>
     <row r="45">
@@ -800,7 +800,7 @@
         <v>37165</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07759023945518054</v>
+        <v>0.1457107248964856</v>
       </c>
     </row>
     <row r="46">
@@ -808,7 +808,7 @@
         <v>37257</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08365555752286996</v>
+        <v>0.1575378228653559</v>
       </c>
     </row>
     <row r="47">
@@ -816,7 +816,7 @@
         <v>37347</v>
       </c>
       <c r="B47" t="n">
-        <v>0.08402729075546415</v>
+        <v>0.1559941842669514</v>
       </c>
     </row>
     <row r="48">
@@ -824,7 +824,7 @@
         <v>37438</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07633800813641502</v>
+        <v>0.1380541996415867</v>
       </c>
     </row>
     <row r="49">
@@ -832,7 +832,7 @@
         <v>37530</v>
       </c>
       <c r="B49" t="n">
-        <v>0.04954634719997026</v>
+        <v>0.1025610595858104</v>
       </c>
     </row>
     <row r="50">
@@ -840,7 +840,7 @@
         <v>37622</v>
       </c>
       <c r="B50" t="n">
-        <v>0.05427461672157891</v>
+        <v>0.1374048959130579</v>
       </c>
     </row>
     <row r="51">
@@ -848,7 +848,7 @@
         <v>37712</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02684329869503389</v>
+        <v>0.09760107668723263</v>
       </c>
     </row>
     <row r="52">
@@ -856,7 +856,7 @@
         <v>37803</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0420872965453449</v>
+        <v>0.1049712501029127</v>
       </c>
     </row>
     <row r="53">
@@ -864,7 +864,7 @@
         <v>37895</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06613036358234245</v>
+        <v>0.1317739931287405</v>
       </c>
     </row>
     <row r="54">
@@ -872,7 +872,7 @@
         <v>37987</v>
       </c>
       <c r="B54" t="n">
-        <v>0.07129752673691456</v>
+        <v>0.1237892008013307</v>
       </c>
     </row>
     <row r="55">
@@ -880,7 +880,7 @@
         <v>38078</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04243822333237877</v>
+        <v>0.1150729020492335</v>
       </c>
     </row>
     <row r="56">
@@ -888,7 +888,7 @@
         <v>38169</v>
       </c>
       <c r="B56" t="n">
-        <v>0.04052058494792745</v>
+        <v>0.1077809349386131</v>
       </c>
     </row>
     <row r="57">
@@ -896,7 +896,7 @@
         <v>38261</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0585202578519318</v>
+        <v>0.1307753281620129</v>
       </c>
     </row>
     <row r="58">
@@ -904,7 +904,7 @@
         <v>38353</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07858034034818877</v>
+        <v>0.1434899064977362</v>
       </c>
     </row>
     <row r="59">
@@ -912,7 +912,7 @@
         <v>38443</v>
       </c>
       <c r="B59" t="n">
-        <v>0.08520050990434251</v>
+        <v>0.1432394071662042</v>
       </c>
     </row>
     <row r="60">
@@ -920,7 +920,7 @@
         <v>38534</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07190973962565118</v>
+        <v>0.1339644058117237</v>
       </c>
     </row>
     <row r="61">
@@ -928,7 +928,7 @@
         <v>38626</v>
       </c>
       <c r="B61" t="n">
-        <v>0.05916080106773661</v>
+        <v>0.1266902918786744</v>
       </c>
     </row>
     <row r="62">
@@ -936,7 +936,7 @@
         <v>38718</v>
       </c>
       <c r="B62" t="n">
-        <v>0.05760977783771891</v>
+        <v>0.1228250607043965</v>
       </c>
     </row>
     <row r="63">
@@ -944,7 +944,7 @@
         <v>38808</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05348462202460091</v>
+        <v>0.1310655400045183</v>
       </c>
     </row>
     <row r="64">
@@ -952,7 +952,7 @@
         <v>38899</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05407519381665079</v>
+        <v>0.1215560133957529</v>
       </c>
     </row>
     <row r="65">
@@ -960,7 +960,7 @@
         <v>38991</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0508395859394728</v>
+        <v>0.122178429757306</v>
       </c>
     </row>
     <row r="66">
@@ -968,7 +968,7 @@
         <v>39083</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06053038382373559</v>
+        <v>0.1247244027534228</v>
       </c>
     </row>
     <row r="67">
@@ -976,7 +976,7 @@
         <v>39173</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06344489871922693</v>
+        <v>0.1265059825698407</v>
       </c>
     </row>
     <row r="68">
@@ -984,7 +984,7 @@
         <v>39264</v>
       </c>
       <c r="B68" t="n">
-        <v>0.04719749355259403</v>
+        <v>0.1158541720583533</v>
       </c>
     </row>
     <row r="69">
@@ -992,7 +992,7 @@
         <v>39356</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07883496921559989</v>
+        <v>0.1433022012516073</v>
       </c>
     </row>
     <row r="70">
@@ -1000,7 +1000,7 @@
         <v>39448</v>
       </c>
       <c r="B70" t="n">
-        <v>0.05735158972589238</v>
+        <v>0.1198656405768554</v>
       </c>
     </row>
     <row r="71">
@@ -1008,7 +1008,7 @@
         <v>39539</v>
       </c>
       <c r="B71" t="n">
-        <v>0.06641281160251827</v>
+        <v>0.1295756326503991</v>
       </c>
     </row>
     <row r="72">
@@ -1016,7 +1016,7 @@
         <v>39630</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06101281930822235</v>
+        <v>0.1280677815698573</v>
       </c>
     </row>
     <row r="73">
@@ -1024,7 +1024,7 @@
         <v>39722</v>
       </c>
       <c r="B73" t="n">
-        <v>0.06521458478188899</v>
+        <v>0.1309475684841198</v>
       </c>
     </row>
     <row r="74">
@@ -1032,7 +1032,7 @@
         <v>39814</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08844128631106117</v>
+        <v>0.1480506832048831</v>
       </c>
     </row>
     <row r="75">
@@ -1040,7 +1040,7 @@
         <v>39904</v>
       </c>
       <c r="B75" t="n">
-        <v>0.05636426461440724</v>
+        <v>0.1248738115456439</v>
       </c>
     </row>
     <row r="76">
@@ -1048,7 +1048,7 @@
         <v>39995</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0442109741064917</v>
+        <v>0.1088645334610977</v>
       </c>
     </row>
     <row r="77">
@@ -1056,7 +1056,7 @@
         <v>40087</v>
       </c>
       <c r="B77" t="n">
-        <v>0.03685173799497465</v>
+        <v>0.1192209231900444</v>
       </c>
     </row>
     <row r="78">
@@ -1064,7 +1064,7 @@
         <v>40179</v>
       </c>
       <c r="B78" t="n">
-        <v>0.03429803039242681</v>
+        <v>0.09789775959335968</v>
       </c>
     </row>
     <row r="79">
@@ -1072,7 +1072,7 @@
         <v>40269</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02817589908198746</v>
+        <v>0.1021044546617802</v>
       </c>
     </row>
     <row r="80">
@@ -1080,7 +1080,7 @@
         <v>40360</v>
       </c>
       <c r="B80" t="n">
-        <v>0.03493371570372235</v>
+        <v>0.09980871860674112</v>
       </c>
     </row>
     <row r="81">
@@ -1088,7 +1088,7 @@
         <v>40452</v>
       </c>
       <c r="B81" t="n">
-        <v>0.04715796916651147</v>
+        <v>0.1124457053518619</v>
       </c>
     </row>
     <row r="82">
@@ -1096,7 +1096,7 @@
         <v>40544</v>
       </c>
       <c r="B82" t="n">
-        <v>0.07106415739791817</v>
+        <v>0.1352924425936665</v>
       </c>
     </row>
     <row r="83">
@@ -1104,7 +1104,7 @@
         <v>40634</v>
       </c>
       <c r="B83" t="n">
-        <v>0.06103345102404226</v>
+        <v>0.1265429364570989</v>
       </c>
     </row>
     <row r="84">
@@ -1112,7 +1112,7 @@
         <v>40725</v>
       </c>
       <c r="B84" t="n">
-        <v>0.06661170733845125</v>
+        <v>0.1270185630656396</v>
       </c>
     </row>
     <row r="85">
@@ -1120,7 +1120,7 @@
         <v>40817</v>
       </c>
       <c r="B85" t="n">
-        <v>0.05918715214151189</v>
+        <v>0.1305267047990269</v>
       </c>
     </row>
     <row r="86">
@@ -1128,7 +1128,7 @@
         <v>40909</v>
       </c>
       <c r="B86" t="n">
-        <v>0.05776158732686179</v>
+        <v>0.1334036059660968</v>
       </c>
     </row>
     <row r="87">
@@ -1136,7 +1136,7 @@
         <v>41000</v>
       </c>
       <c r="B87" t="n">
-        <v>0.05195236445878916</v>
+        <v>0.122190707636613</v>
       </c>
     </row>
     <row r="88">
@@ -1144,7 +1144,7 @@
         <v>41091</v>
       </c>
       <c r="B88" t="n">
-        <v>0.04898046652861778</v>
+        <v>0.1150509403929729</v>
       </c>
     </row>
     <row r="89">
@@ -1152,7 +1152,7 @@
         <v>41183</v>
       </c>
       <c r="B89" t="n">
-        <v>0.05992706337449017</v>
+        <v>0.1216342703273902</v>
       </c>
     </row>
     <row r="90">
@@ -1160,7 +1160,7 @@
         <v>41275</v>
       </c>
       <c r="B90" t="n">
-        <v>0.06430836161784736</v>
+        <v>0.1326989616724992</v>
       </c>
     </row>
     <row r="91">
@@ -1168,7 +1168,7 @@
         <v>41365</v>
       </c>
       <c r="B91" t="n">
-        <v>0.05082470523501012</v>
+        <v>0.1168177261070345</v>
       </c>
     </row>
     <row r="92">
@@ -1176,7 +1176,7 @@
         <v>41456</v>
       </c>
       <c r="B92" t="n">
-        <v>0.06730866128221606</v>
+        <v>0.1292518239962615</v>
       </c>
     </row>
     <row r="93">
@@ -1184,7 +1184,7 @@
         <v>41548</v>
       </c>
       <c r="B93" t="n">
-        <v>0.08651329866112803</v>
+        <v>0.1563995220447591</v>
       </c>
     </row>
     <row r="94">
@@ -1192,7 +1192,7 @@
         <v>41640</v>
       </c>
       <c r="B94" t="n">
-        <v>0.08791724840439039</v>
+        <v>0.1523313871113917</v>
       </c>
     </row>
     <row r="95">
@@ -1200,7 +1200,7 @@
         <v>41730</v>
       </c>
       <c r="B95" t="n">
-        <v>0.05724045460701351</v>
+        <v>0.1332296639882082</v>
       </c>
     </row>
     <row r="96">
@@ -1208,7 +1208,7 @@
         <v>41821</v>
       </c>
       <c r="B96" t="n">
-        <v>0.07837866137234001</v>
+        <v>0.1522005234930857</v>
       </c>
     </row>
     <row r="97">
@@ -1216,7 +1216,7 @@
         <v>41913</v>
       </c>
       <c r="B97" t="n">
-        <v>0.07095098815287457</v>
+        <v>0.1400451859680437</v>
       </c>
     </row>
     <row r="98">
@@ -1224,7 +1224,7 @@
         <v>42005</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0450359201146542</v>
+        <v>0.1139267169257396</v>
       </c>
     </row>
     <row r="99">
@@ -1232,7 +1232,7 @@
         <v>42095</v>
       </c>
       <c r="B99" t="n">
-        <v>0.07019612305156113</v>
+        <v>0.1517871031734074</v>
       </c>
     </row>
     <row r="100">
@@ -1240,7 +1240,7 @@
         <v>42186</v>
       </c>
       <c r="B100" t="n">
-        <v>0.07589335577383131</v>
+        <v>0.1544853014269462</v>
       </c>
     </row>
     <row r="101">
@@ -1248,7 +1248,7 @@
         <v>42278</v>
       </c>
       <c r="B101" t="n">
-        <v>0.05704058317622094</v>
+        <v>0.1229614543217485</v>
       </c>
     </row>
     <row r="102">
@@ -1256,7 +1256,7 @@
         <v>42370</v>
       </c>
       <c r="B102" t="n">
-        <v>0.06935098057138143</v>
+        <v>0.1443040928879988</v>
       </c>
     </row>
     <row r="103">
@@ -1264,7 +1264,7 @@
         <v>42461</v>
       </c>
       <c r="B103" t="n">
-        <v>0.03864716224849252</v>
+        <v>0.1145242148395823</v>
       </c>
     </row>
     <row r="104">
@@ -1272,7 +1272,7 @@
         <v>42552</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0519982368548858</v>
+        <v>0.1296510035770119</v>
       </c>
     </row>
     <row r="105">
@@ -1280,7 +1280,7 @@
         <v>42644</v>
       </c>
       <c r="B105" t="n">
-        <v>0.0702555585950049</v>
+        <v>0.1273578986676391</v>
       </c>
     </row>
     <row r="106">
@@ -1288,7 +1288,7 @@
         <v>42736</v>
       </c>
       <c r="B106" t="n">
-        <v>0.09287425788934812</v>
+        <v>0.1621764223315131</v>
       </c>
     </row>
     <row r="107">
@@ -1296,7 +1296,7 @@
         <v>42826</v>
       </c>
       <c r="B107" t="n">
-        <v>0.05378084192745098</v>
+        <v>0.1146961707170225</v>
       </c>
     </row>
     <row r="108">
@@ -1304,7 +1304,7 @@
         <v>42917</v>
       </c>
       <c r="B108" t="n">
-        <v>0.05803702491888062</v>
+        <v>0.1281737651826067</v>
       </c>
     </row>
     <row r="109">
@@ -1312,7 +1312,7 @@
         <v>43009</v>
       </c>
       <c r="B109" t="n">
-        <v>0.068044516926362</v>
+        <v>0.1271499990371359</v>
       </c>
     </row>
     <row r="110">
@@ -1320,7 +1320,7 @@
         <v>43101</v>
       </c>
       <c r="B110" t="n">
-        <v>0.08196360719216471</v>
+        <v>0.138168444131268</v>
       </c>
     </row>
     <row r="111">
@@ -1328,7 +1328,7 @@
         <v>43191</v>
       </c>
       <c r="B111" t="n">
-        <v>0.09231379874190368</v>
+        <v>0.1581011254260606</v>
       </c>
     </row>
     <row r="112">
@@ -1336,7 +1336,7 @@
         <v>43282</v>
       </c>
       <c r="B112" t="n">
-        <v>0.06656303060111084</v>
+        <v>0.1265874861080907</v>
       </c>
     </row>
     <row r="113">
@@ -1344,7 +1344,7 @@
         <v>43374</v>
       </c>
       <c r="B113" t="n">
-        <v>0.05405704108483051</v>
+        <v>0.1142359371274724</v>
       </c>
     </row>
   </sheetData>
